--- a/Server/FiveServerTestList.xlsx
+++ b/Server/FiveServerTestList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>寻找游戏</t>
   </si>
@@ -84,10 +84,7 @@
     <t>Game.Quit</t>
   </si>
   <si>
-    <t>操作集</t>
-  </si>
-  <si>
-    <t>用户状态</t>
+    <t>Player.Match接口</t>
   </si>
 </sst>
 </file>
@@ -1065,10 +1062,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1194,11 +1191,6 @@
     <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Server/FiveServerTestList.xlsx
+++ b/Server/FiveServerTestList.xlsx
@@ -84,7 +84,7 @@
     <t>Game.Quit</t>
   </si>
   <si>
-    <t>Player.Match接口</t>
+    <t>Matcher.Match接口</t>
   </si>
 </sst>
 </file>
@@ -94,10 +94,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,10 +113,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,45 +212,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -175,9 +230,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,22 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,45 +260,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,19 +274,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,37 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,115 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,15 +465,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,10 +500,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -513,8 +510,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,26 +546,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,16 +585,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,120 +606,123 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,7 +1076,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1184,12 +1195,12 @@
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Server/FiveServerTestList.xlsx
+++ b/Server/FiveServerTestList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>寻找游戏</t>
   </si>
@@ -36,12 +36,6 @@
     <t>游戏结束</t>
   </si>
   <si>
-    <t>回到房间</t>
-  </si>
-  <si>
-    <t>用户管理</t>
-  </si>
-  <si>
     <t>棋盘设置位置上的棋子</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>Player.Play需要验证编号是否和当前相同</t>
   </si>
   <si>
-    <t>Game.Play事件</t>
-  </si>
-  <si>
     <t>玩家超时未下棋</t>
   </si>
   <si>
@@ -75,16 +66,49 @@
     <t>不允许重复落子</t>
   </si>
   <si>
+    <t>Matcher.Match接口</t>
+  </si>
+  <si>
+    <t>Client.Process</t>
+  </si>
+  <si>
+    <t>ASocket.onRecv</t>
+  </si>
+  <si>
+    <t>Game.Start.Notify</t>
+  </si>
+  <si>
+    <t>Game.Play.Notify</t>
+  </si>
+  <si>
+    <t>Game.Finish.Notify</t>
+  </si>
+  <si>
     <t>连接</t>
   </si>
   <si>
-    <t>创建用户</t>
-  </si>
-  <si>
-    <t>Game.Quit</t>
-  </si>
-  <si>
-    <t>Matcher.Match接口</t>
+    <t>请求创建用户</t>
+  </si>
+  <si>
+    <t>删除用户</t>
+  </si>
+  <si>
+    <t>断开连接</t>
+  </si>
+  <si>
+    <t>Net Proto</t>
+  </si>
+  <si>
+    <t>Net Norifier</t>
+  </si>
+  <si>
+    <t>serialize&amp;deserialize</t>
+  </si>
+  <si>
+    <t>优化GetExtendLength？</t>
+  </si>
+  <si>
+    <t>TcpSocket</t>
   </si>
 </sst>
 </file>
@@ -1073,10 +1097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1115,12 +1139,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1131,17 +1155,17 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -1165,7 +1189,7 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1177,31 +1201,6 @@
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1214,14 +1213,83 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="74.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Server/FiveServerTestList.xlsx
+++ b/Server/FiveServerTestList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>寻找游戏</t>
   </si>
@@ -84,18 +84,6 @@
     <t>Game.Finish.Notify</t>
   </si>
   <si>
-    <t>连接</t>
-  </si>
-  <si>
-    <t>请求创建用户</t>
-  </si>
-  <si>
-    <t>删除用户</t>
-  </si>
-  <si>
-    <t>断开连接</t>
-  </si>
-  <si>
     <t>Net Proto</t>
   </si>
   <si>
@@ -109,6 +97,27 @@
   </si>
   <si>
     <t>TcpSocket</t>
+  </si>
+  <si>
+    <t>TcpSocket.Recv Over Buffer</t>
+  </si>
+  <si>
+    <t>MessagePacker.Pack</t>
+  </si>
+  <si>
+    <t>MessagePacker.UnPack</t>
+  </si>
+  <si>
+    <t>关联Client</t>
+  </si>
+  <si>
+    <t>NotifySer</t>
+  </si>
+  <si>
+    <t>NotifySerRegest</t>
+  </si>
+  <si>
+    <t>Socket.Close RemoveClient</t>
   </si>
 </sst>
 </file>
@@ -121,7 +130,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,14 +141,6 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.25"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -597,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,33 +610,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -645,108 +649,102 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1213,10 +1211,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1245,17 +1243,17 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1270,7 +1268,7 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1280,13 +1278,28 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Server/FiveServerTestList.xlsx
+++ b/Server/FiveServerTestList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>寻找游戏</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>Socket.Close RemoveClient</t>
+  </si>
+  <si>
+    <t>matching 并发测试</t>
+  </si>
+  <si>
+    <t>game。play 并发测试 ？</t>
+  </si>
+  <si>
+    <t>同一个player join game 会失败 ？</t>
+  </si>
+  <si>
+    <t>Game Notify TurnPlayer？</t>
+  </si>
+  <si>
+    <t>Game Notify Stop？</t>
   </si>
 </sst>
 </file>
@@ -740,11 +755,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,97 +1128,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1211,10 +1232,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1223,37 +1244,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1263,43 +1284,68 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Server/FiveServerTestList.xlsx
+++ b/Server/FiveServerTestList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" activeTab="1"/>
+    <workbookView windowWidth="30048" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>寻找游戏</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Game Notify Stop？</t>
+  </si>
+  <si>
+    <t>Game.TurnPlayer 重置计时</t>
   </si>
 </sst>
 </file>
@@ -755,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,9 +766,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1232,10 +1232,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1339,13 +1339,18 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Server/FiveServerTestList.xlsx
+++ b/Server/FiveServerTestList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13140" activeTab="1"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>寻找游戏</t>
   </si>
@@ -126,16 +126,25 @@
     <t>game。play 并发测试 ？</t>
   </si>
   <si>
-    <t>同一个player join game 会失败 ？</t>
-  </si>
-  <si>
-    <t>Game Notify TurnPlayer？</t>
+    <t>Game Notify TurnPlayer</t>
   </si>
   <si>
     <t>Game Notify Stop？</t>
   </si>
   <si>
     <t>Game.TurnPlayer 重置计时</t>
+  </si>
+  <si>
+    <t>Game Return Join Id</t>
+  </si>
+  <si>
+    <t>Game.Play Timer.onTime 竞争？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when message processer Not Found,defaultProcesser response </t>
+  </si>
+  <si>
+    <t>when message deseriliaer Not Found,defaultDeseriliaer</t>
   </si>
 </sst>
 </file>
@@ -148,7 +157,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +168,12 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -616,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,34 +643,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,98 +679,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,6 +781,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1232,10 +1250,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1329,12 +1347,12 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" s="1" customFormat="1" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1343,14 +1361,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:1">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Server/FiveServerTestList.xlsx
+++ b/Server/FiveServerTestList.xlsx
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1352,7 +1352,7 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Server/FiveServerTestList.xlsx
+++ b/Server/FiveServerTestList.xlsx
@@ -1377,12 +1377,12 @@
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Server/FiveServerTestList.xlsx
+++ b/Server/FiveServerTestList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" activeTab="1"/>
+    <workbookView windowWidth="30048" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>寻找游戏</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>when message deseriliaer Not Found,defaultDeseriliaer</t>
+  </si>
+  <si>
+    <t>FuncTest</t>
+  </si>
+  <si>
+    <t>Disconnect recory</t>
   </si>
 </sst>
 </file>
@@ -1250,10 +1256,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A28" sqref="$A28:$XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1384,6 +1390,16 @@
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Server/FiveServerTestList.xlsx
+++ b/Server/FiveServerTestList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13140" activeTab="1"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>寻找游戏</t>
   </si>
@@ -150,7 +150,16 @@
     <t>FuncTest</t>
   </si>
   <si>
-    <t>Disconnect recory</t>
+    <t>Disconnect recory ？</t>
+  </si>
+  <si>
+    <t>当在同一游戏的2个player都离开，game应该被stop</t>
+  </si>
+  <si>
+    <t>player.outline</t>
+  </si>
+  <si>
+    <t>game.playeroutline</t>
   </si>
 </sst>
 </file>
@@ -1256,10 +1265,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="$A28:$XFD28"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1398,8 +1407,23 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Server/FiveServerTestList.xlsx
+++ b/Server/FiveServerTestList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30045" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,14 +165,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,7 +176,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -194,345 +188,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -540,251 +210,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -802,57 +230,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1143,309 +524,305 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="75.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="75.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="74.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="74.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:1">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:1">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>